--- a/data/df_Level8.xlsx
+++ b/data/df_Level8.xlsx
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
         <v>0</v>
@@ -1959,13 +1959,13 @@
         <v>0</v>
       </c>
       <c r="EE2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="EF2" t="n">
         <v>0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2</v>
       </c>
       <c r="EM2" t="n">
         <v>0</v>
@@ -1989,13 +1989,13 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.7</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.2874797872880345</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.385694607919935</v>
+        <v>0.4</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
@@ -2019,16 +2019,16 @@
         <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.8331955809010617</v>
+        <v>0.7810249675906655</v>
       </c>
       <c r="EZ2" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="FA2" t="n">
         <v>0</v>
       </c>
       <c r="FB2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="FC2" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="FK2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="FL2" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>2.818181818181818</v>
+        <v>2.6</v>
       </c>
       <c r="FO2" t="n">
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.4</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
@@ -2094,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>1.181818181818182</v>
+        <v>1.2</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.7</v>
       </c>
       <c r="FZ2" t="n">
         <v>0</v>
@@ -2106,13 +2106,13 @@
         <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>2.208174145725658</v>
+        <v>2.2</v>
       </c>
       <c r="GC2" t="n">
         <v>0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.4979295977319692</v>
+        <v>0.4898979485566356</v>
       </c>
       <c r="GE2" t="n">
         <v>0</v>
@@ -2136,10 +2136,10 @@
         <v>0</v>
       </c>
       <c r="GL2" t="n">
-        <v>0.385694607919935</v>
+        <v>0.4</v>
       </c>
       <c r="GM2" t="n">
-        <v>0.8331955809010617</v>
+        <v>0.7810249675906655</v>
       </c>
       <c r="GN2" t="n">
         <v>0</v>
@@ -2614,103 +2614,103 @@
         <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="DX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>6</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>6</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>4</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>6</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="EH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>0.8819171036881969</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>0.4714045207910317</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>0.4714045207910317</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>0.415739709641549</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>0.5773502691896257</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>9</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FB3" t="n">
         <v>1</v>
       </c>
-      <c r="DY3" t="n">
-        <v>10</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>10</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>10</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>15</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>1.142857142857143</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>1.423801560735815</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>0.21295885499998</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>0.5870870479018072</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU3" t="n">
-        <v>0.5870870479018072</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>0.7315376902732007</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EY3" t="n">
-        <v>1.075389503870116</v>
-      </c>
-      <c r="EZ3" t="n">
-        <v>15</v>
-      </c>
-      <c r="FA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FB3" t="n">
-        <v>4</v>
-      </c>
       <c r="FC3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FD3" t="n">
         <v>0</v>
@@ -2731,11 +2731,11 @@
         <v>0</v>
       </c>
       <c r="FJ3" t="n">
+        <v>6</v>
+      </c>
+      <c r="FK3" t="n">
         <v>12</v>
       </c>
-      <c r="FK3" t="n">
-        <v>24</v>
-      </c>
       <c r="FL3" t="n">
         <v>0</v>
       </c>
@@ -2743,16 +2743,16 @@
         <v>0</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="FO3" t="n">
         <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.1904761904761905</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.09523809523809523</v>
+        <v>0</v>
       </c>
       <c r="FR3" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="FY3" t="n">
-        <v>1.142857142857143</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="FZ3" t="n">
         <v>0</v>
@@ -2785,16 +2785,16 @@
         <v>0</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.7648751621051909</v>
+        <v>0.6009252125773316</v>
       </c>
       <c r="GC3" t="n">
         <v>0</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.392676726249301</v>
+        <v>0.2290614236454256</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.2935435239509037</v>
+        <v>0</v>
       </c>
       <c r="GF3" t="n">
         <v>0</v>
@@ -2815,10 +2815,10 @@
         <v>0</v>
       </c>
       <c r="GL3" t="n">
-        <v>0.7284313590846835</v>
+        <v>0.4714045207910317</v>
       </c>
       <c r="GM3" t="n">
-        <v>1.423801560735815</v>
+        <v>0.8819171036881969</v>
       </c>
       <c r="GN3" t="n">
         <v>0</v>
@@ -3290,22 +3290,22 @@
         <v>0.4996569467863719</v>
       </c>
       <c r="DV4" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="DW4" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="DX4" t="n">
         <v>0</v>
       </c>
       <c r="DY4" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="DZ4" t="n">
         <v>0</v>
       </c>
       <c r="EA4" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="EB4" t="n">
         <v>0</v>
@@ -3317,25 +3317,25 @@
         <v>0</v>
       </c>
       <c r="EE4" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="EF4" t="n">
-        <v>1.260869565217391</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="EG4" t="n">
-        <v>1.652173913043478</v>
+        <v>1.571428571428571</v>
       </c>
       <c r="EH4" t="n">
         <v>0</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="EJ4" t="n">
         <v>0</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.6956521739130435</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="EL4" t="n">
         <v>0</v>
@@ -3347,25 +3347,25 @@
         <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.4391089103635686</v>
+        <v>0.4948716593053935</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.5601782055097881</v>
+        <v>0.6226998490772391</v>
       </c>
       <c r="ER4" t="n">
         <v>0</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.4601306627938419</v>
+        <v>0.4791574237499549</v>
       </c>
       <c r="ET4" t="n">
         <v>0</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.4601306627938419</v>
+        <v>0.4791574237499549</v>
       </c>
       <c r="EV4" t="n">
         <v>0</v>
@@ -3377,10 +3377,10 @@
         <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.2039311199923231</v>
+        <v>0.2575393768188564</v>
       </c>
       <c r="EZ4" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="FA4" t="n">
         <v>0</v>
@@ -3410,10 +3410,10 @@
         <v>0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="FK4" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="FL4" t="n">
         <v>0</v>
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="FN4" t="n">
-        <v>1.608695652173913</v>
+        <v>1.428571428571429</v>
       </c>
       <c r="FO4" t="n">
         <v>0</v>
@@ -3455,7 +3455,7 @@
         <v>1</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.6521739130434783</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="FZ4" t="n">
         <v>0</v>
@@ -3464,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.5702120455914783</v>
+        <v>0.4948716593053935</v>
       </c>
       <c r="GC4" t="n">
         <v>0</v>
@@ -3497,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.63305303385048</v>
+        <v>0.7178482586514923</v>
       </c>
       <c r="GN4" t="n">
         <v>0</v>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="EZ5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="FA5" t="n">
         <v>0</v>
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="FK5" t="n">
         <v>0</v>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="FY5" t="n">
         <v>0</v>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="GL5" t="n">
-        <v>0.4000000000000001</v>
+        <v>0.4330127018922193</v>
       </c>
       <c r="GM5" t="n">
         <v>0</v>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="EZ7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
         <v>0</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="FC7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FD7" t="n">
         <v>0</v>
@@ -5447,7 +5447,7 @@
         <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="FK7" t="n">
         <v>0</v>
@@ -5459,7 +5459,7 @@
         <v>0</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="FO7" t="n">
         <v>0</v>
@@ -5468,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="FR7" t="n">
         <v>0</v>
@@ -5489,7 +5489,7 @@
         <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.07692307692307693</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
         <v>0</v>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.2664693550105965</v>
+        <v>0</v>
       </c>
       <c r="GC7" t="n">
         <v>0</v>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.2664693550105965</v>
+        <v>0</v>
       </c>
       <c r="GF7" t="n">
         <v>0</v>
@@ -5531,7 +5531,7 @@
         <v>0</v>
       </c>
       <c r="GL7" t="n">
-        <v>0.2664693550105965</v>
+        <v>0</v>
       </c>
       <c r="GM7" t="n">
         <v>0</v>
